--- a/Olympic_roster2024.xlsx
+++ b/Olympic_roster2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jbowt\Downloads\Coding Projects\Olympian-Hometown-Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692D4E19-192F-4E86-921B-0BE3B61D3526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FED617-B133-4147-90CF-C4D063F310B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5552,55 +5552,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F34E71EB-1E8B-E1EA-B0F5-FD15C99F1BDF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1676400" cy="1676400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19997,6 +19948,5 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>